--- a/Conversions.xlsx
+++ b/Conversions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\C#\Projects\GitHub\Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Mass" sheetId="3" r:id="rId2"/>
     <sheet name="Volume" sheetId="4" r:id="rId3"/>
     <sheet name="Calculations" sheetId="2" r:id="rId4"/>
+    <sheet name="Distance" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Ounce</t>
   </si>
@@ -129,6 +130,30 @@
   </si>
   <si>
     <t>tbs</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>mi</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1084,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1206,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:J10" si="1">CONVERT(1,$A4,B$1)</f>
+        <f t="shared" ref="B4:B10" si="1">CONVERT(1,$A4,B$1)</f>
         <v>14.78676478125</v>
       </c>
       <c r="C4" s="4">
@@ -1473,7 +1498,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,19 +1521,366 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C2" s="5">
         <f>96.56064/(A2/B2)</f>
-        <v>12.070080000000001</v>
+        <v>11.411712000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:I9" si="0">CONVERT(1,$A2,B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.937007874015748E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2808398950131233E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0936132983377078E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2137119223733397E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <f>CONVERT(1,$A3,B$1)</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39370078740157483</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2808398950131233E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0936132983377079E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2137119223733393E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B9" si="1">CONVERT(1,$A4,B$1)</f>
+        <v>25.4</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5400000000000001E-5</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5782828282828283E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="1"/>
+        <v>304.8</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>30.48</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0480000000000004E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8939393939393939E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="1"/>
+        <v>914.4</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>91.44</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.144E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6818181818181815E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4">
+        <f>CONVERT(1,$A7,B$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>39.370078740157481</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2808398950131235</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0936132983377078</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2137119223733392E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>39370.078740157478</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>3280.8398950131236</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>1093.6132983377079</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62137119223733395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="1"/>
+        <v>1609344</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>160934.39999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>63360</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>5280</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>1609.3440000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6093440000000001</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
